--- a/Groups/AZGroups.xlsx
+++ b/Groups/AZGroups.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\Github\Azure\Groups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://848-my.sharepoint.com/personal/scott_mcgrath_848_co/Documents/Documents/GitHub/Azure/Groups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967C40AA-DE51-4395-BAE6-146B56A69CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{967C40AA-DE51-4395-BAE6-146B56A69CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3D2A1CD-566F-4796-B891-F4DAFDA7A40D}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="25296" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-12996" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hierarchy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>ParentGroup</t>
   </si>
@@ -48,16 +48,100 @@
   </si>
   <si>
     <t>GroupNam</t>
+  </si>
+  <si>
+    <t>Pgroup1</t>
+  </si>
+  <si>
+    <t>Pgroup2</t>
+  </si>
+  <si>
+    <t>Pgroup3</t>
+  </si>
+  <si>
+    <t>Pgroup4</t>
+  </si>
+  <si>
+    <t>Pgroup5</t>
+  </si>
+  <si>
+    <t>Pgroup6</t>
+  </si>
+  <si>
+    <t>Pgroup7</t>
+  </si>
+  <si>
+    <t>Pgroup8</t>
+  </si>
+  <si>
+    <t>Pgroup9</t>
+  </si>
+  <si>
+    <t>Pgroup10</t>
+  </si>
+  <si>
+    <t>Pgroup11</t>
+  </si>
+  <si>
+    <t>Pgroup12</t>
+  </si>
+  <si>
+    <t>Pgroup13</t>
+  </si>
+  <si>
+    <t>Group1</t>
+  </si>
+  <si>
+    <t>Group2</t>
+  </si>
+  <si>
+    <t>Group3</t>
+  </si>
+  <si>
+    <t>Group4</t>
+  </si>
+  <si>
+    <t>Group5</t>
+  </si>
+  <si>
+    <t>Group6</t>
+  </si>
+  <si>
+    <t>Group7</t>
+  </si>
+  <si>
+    <t>Group8</t>
+  </si>
+  <si>
+    <t>Group9</t>
+  </si>
+  <si>
+    <t>Group10</t>
+  </si>
+  <si>
+    <t>Group11</t>
+  </si>
+  <si>
+    <t>Group12</t>
+  </si>
+  <si>
+    <t>Group13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -365,18 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,7 +468,112 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -397,14 +586,14 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -424,13 +613,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FA8F42-71FF-4263-8AFB-786E87266D06}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
